--- a/biology/Histoire de la zoologie et de la botanique/David_Heinrich_Hoppe/David_Heinrich_Hoppe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/David_Heinrich_Hoppe/David_Heinrich_Hoppe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Heinrich Hoppe est un médecin, un pharmacien et un botaniste allemand, né le 15 décembre 1760 à Bruchhausen-Vilsen et mort le 1er août 1846 (à 85 ans) à Ratisbonne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence sa carrière comme apprenti en pharmacie à Celle puis à Hambourg, à Halle, à Wolfenbüttel et à Ratisbonne. Après cet apprentissage, il étudie la médecine et les sciences naturelles à l’université d’Erlangen. Après l’obtention de son diplôme de médecine, il exerce à Ratisbonne. Il enseigne également au lyceum de la ville.
 Hoppe est principalement connu pour ses contributions à l’étude de la flore alpine. Il étudie aussi la flore autour de Ratisbonne et fait, chaque été de 1796 à 1843, des excursions botaniques à Salzbourg et à Heiligenblut. Avec le bryologiste Christian Friedrich Hornschuch (de) (1793-1850), il fait paraître un traité sur un grand voyage scientifique sur la côte adriatique, les montagnes de Carinthie et du Tyrol, qui porte le titre de Tagebuch einer Botanischen Reise nach den Küsten des Adriatischen Meeres und den Gebirgen von Kärnten, Tirol und Salzburg.
